--- a/data/AutomationChips.xlsx
+++ b/data/AutomationChips.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19087DDE-7D4D-4CC8-B51B-5D3F5B6DB657}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChipIds" sheetId="1" r:id="rId1"/>

--- a/data/AutomationChips.xlsx
+++ b/data/AutomationChips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesys1-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWrightPOC/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesys1-my.sharepoint.com/personal/vishal_khurana_wdtablesys1_onmicrosoft_com/Documents/PlayWright_Project/PlayWright_POC/PlayWright_POC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19087DDE-7D4D-4CC8-B51B-5D3F5B6DB657}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90FE9A7E-CDBA-40A0-B8CC-3A90FBD56A25}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChipIds" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>T</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>All-chips</t>
+  </si>
+  <si>
+    <t>e04ff0010014b024</t>
+  </si>
+  <si>
+    <t>e00540011226b44d</t>
+  </si>
+  <si>
+    <t>e00540011226b3cb</t>
+  </si>
+  <si>
+    <t>e00540011226b40c</t>
+  </si>
+  <si>
+    <t>e00540011226b40f</t>
   </si>
 </sst>
 </file>
@@ -555,18 +570,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -577,632 +592,687 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="1">
-        <v>100</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="1">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="1">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="1">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="1">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1">
-        <v>100</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B14" s="1">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B15" s="1">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1">
-        <v>100</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B16" s="1">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1">
-        <v>100</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1">
-        <v>100</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B20" s="1">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="1">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1">
-        <v>100</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="1">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1">
-        <v>500</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="1">
+        <v>500</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1">
-        <v>500</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B27" s="1">
+        <v>500</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1">
-        <v>500</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B28" s="1">
+        <v>500</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1">
-        <v>500</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B29" s="1">
+        <v>500</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="1">
-        <v>500</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B30" s="1">
+        <v>500</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="1">
-        <v>500</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B31" s="1">
+        <v>500</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1">
-        <v>500</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="1">
+        <v>500</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="1">
-        <v>500</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B33" s="1">
+        <v>500</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="1">
-        <v>500</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B34" s="1">
+        <v>500</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="1">
-        <v>500</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B35" s="1">
+        <v>500</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>500</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B36" s="1">
+        <v>500</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
-        <v>500</v>
-      </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B37" s="1">
+        <v>500</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="1">
-        <v>500</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B38" s="1">
+        <v>500</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="1">
-        <v>500</v>
-      </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B39" s="1">
+        <v>500</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="1">
-        <v>500</v>
-      </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B40" s="1">
+        <v>500</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="1">
-        <v>500</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B41" s="1">
+        <v>500</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="1">
-        <v>500</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="B42" s="1">
+        <v>500</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1">
-        <v>500</v>
-      </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B43" s="1">
+        <v>500</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="1">
-        <v>500</v>
-      </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B44" s="1">
+        <v>500</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="1">
-        <v>500</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B45" s="1">
+        <v>500</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B46" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B48" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B47" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B52" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="B53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B55" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B56" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="B58" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B59" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B60" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="B61" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B62" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B63" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data/AutomationChips.xlsx
+++ b/data/AutomationChips.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesys1-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWrightPOC/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesystems-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWright_POC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19087DDE-7D4D-4CC8-B51B-5D3F5B6DB657}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CF2223F-E204-4DB1-96F5-E61E41FABAE1}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChipIds" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>T</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,9 @@
       <c r="B31" s="1">
         <v>500</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -912,7 +914,9 @@
       <c r="B32" s="1">
         <v>500</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -921,7 +925,9 @@
       <c r="B33" s="1">
         <v>500</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -930,7 +936,9 @@
       <c r="B34" s="1">
         <v>500</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -939,7 +947,9 @@
       <c r="B35" s="1">
         <v>500</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -948,7 +958,9 @@
       <c r="B36" s="1">
         <v>500</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -957,7 +969,9 @@
       <c r="B37" s="1">
         <v>500</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -966,7 +980,9 @@
       <c r="B38" s="1">
         <v>500</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -975,7 +991,9 @@
       <c r="B39" s="1">
         <v>500</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -984,7 +1002,9 @@
       <c r="B40" s="1">
         <v>500</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
